--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H2">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I2">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J2">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>213.367408634138</v>
+        <v>726.3603211939476</v>
       </c>
       <c r="R2">
-        <v>853.4696345365521</v>
+        <v>2905.44128477579</v>
       </c>
       <c r="S2">
-        <v>0.02857159261983558</v>
+        <v>0.04039784020351637</v>
       </c>
       <c r="T2">
-        <v>0.01599036287846329</v>
+        <v>0.02271789887301557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H3">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I3">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J3">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>314.5717427456607</v>
+        <v>1183.143898106266</v>
       </c>
       <c r="R3">
-        <v>1887.430456473964</v>
+        <v>7098.863388637599</v>
       </c>
       <c r="S3">
-        <v>0.04212365768969047</v>
+        <v>0.06580268323976927</v>
       </c>
       <c r="T3">
-        <v>0.03536235700204017</v>
+        <v>0.05550663213242897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H4">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I4">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J4">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>148.7536430285137</v>
+        <v>648.1116438645147</v>
       </c>
       <c r="R4">
-        <v>892.521858171082</v>
+        <v>3888.669863187089</v>
       </c>
       <c r="S4">
-        <v>0.01991929562501671</v>
+        <v>0.03604589879006616</v>
       </c>
       <c r="T4">
-        <v>0.01672203416688134</v>
+        <v>0.03040584890334305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H5">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I5">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J5">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>50.00854929935651</v>
+        <v>277.5429353408023</v>
       </c>
       <c r="R5">
-        <v>200.034197197426</v>
+        <v>1110.171741363209</v>
       </c>
       <c r="S5">
-        <v>0.006696542397157707</v>
+        <v>0.01543605126045813</v>
       </c>
       <c r="T5">
-        <v>0.003747783485027947</v>
+        <v>0.008680529695823898</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H6">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I6">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J6">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>115.3053659323444</v>
+        <v>441.1092263290824</v>
       </c>
       <c r="R6">
-        <v>691.8321955940661</v>
+        <v>2646.655357974495</v>
       </c>
       <c r="S6">
-        <v>0.01544030535586169</v>
+        <v>0.02453308573938591</v>
       </c>
       <c r="T6">
-        <v>0.01296197007004275</v>
+        <v>0.02069442913516983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H7">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I7">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J7">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>109.4725467010303</v>
+        <v>488.4468484126146</v>
       </c>
       <c r="R7">
-        <v>656.835280206182</v>
+        <v>2930.681090475688</v>
       </c>
       <c r="S7">
-        <v>0.0146592444807774</v>
+        <v>0.02716585302684126</v>
       </c>
       <c r="T7">
-        <v>0.01230627787663153</v>
+        <v>0.02291525111567467</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J8">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>21.98047012501267</v>
+        <v>19.89496348676833</v>
       </c>
       <c r="R8">
-        <v>131.882820750076</v>
+        <v>119.36978092061</v>
       </c>
       <c r="S8">
-        <v>0.002943359728763412</v>
+        <v>0.001106494300889349</v>
       </c>
       <c r="T8">
-        <v>0.00247091879534084</v>
+        <v>0.0009333627307005485</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J9">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>32.40623691245355</v>
@@ -1013,10 +1013,10 @@
         <v>291.656132212082</v>
       </c>
       <c r="S9">
-        <v>0.004339452802710569</v>
+        <v>0.001802331352894805</v>
       </c>
       <c r="T9">
-        <v>0.005464385844650134</v>
+        <v>0.002280484741511562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J10">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>15.32415389728789</v>
+        <v>17.75173713899911</v>
       </c>
       <c r="R10">
-        <v>137.917385075591</v>
+        <v>159.765634250992</v>
       </c>
       <c r="S10">
-        <v>0.002052026057774052</v>
+        <v>0.0009872948994478865</v>
       </c>
       <c r="T10">
-        <v>0.002583980665937808</v>
+        <v>0.001249221431978556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J11">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>5.151730673893834</v>
+        <v>7.601883532871834</v>
       </c>
       <c r="R11">
-        <v>30.91038404336301</v>
+        <v>45.61130119723101</v>
       </c>
       <c r="S11">
-        <v>0.0006898577015292827</v>
+        <v>0.0004227924726145652</v>
       </c>
       <c r="T11">
-        <v>0.0005791281113761377</v>
+        <v>0.0003566387431385693</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.389289</v>
       </c>
       <c r="I12">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J12">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>11.87841276863145</v>
+        <v>12.08195394961622</v>
       </c>
       <c r="R12">
-        <v>106.905714917683</v>
+        <v>108.737585546546</v>
       </c>
       <c r="S12">
-        <v>0.001590613921630066</v>
+        <v>0.0006719596745050102</v>
       </c>
       <c r="T12">
-        <v>0.002002954886899477</v>
+        <v>0.0008502286675302548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.389289</v>
       </c>
       <c r="I13">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J13">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>11.27753323562678</v>
+        <v>13.37852843947033</v>
       </c>
       <c r="R13">
-        <v>101.497799120641</v>
+        <v>120.406755955233</v>
       </c>
       <c r="S13">
-        <v>0.001510151374231158</v>
+        <v>0.0007440710048251811</v>
       </c>
       <c r="T13">
-        <v>0.001901633723835682</v>
+        <v>0.0009414709289607743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H14">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I14">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J14">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>322.6754607372194</v>
+        <v>320.7464973973167</v>
       </c>
       <c r="R14">
-        <v>1936.052764423316</v>
+        <v>1924.4789843839</v>
       </c>
       <c r="S14">
-        <v>0.04320880996595898</v>
+        <v>0.01783889533832971</v>
       </c>
       <c r="T14">
-        <v>0.03627333065199401</v>
+        <v>0.01504766906822934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H15">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I15">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J15">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>475.7267413760292</v>
+        <v>522.4531822041312</v>
       </c>
       <c r="R15">
-        <v>4281.540672384263</v>
+        <v>4702.07863983718</v>
       </c>
       <c r="S15">
-        <v>0.06370359343991711</v>
+        <v>0.02905717665553147</v>
       </c>
       <c r="T15">
-        <v>0.08021772100597442</v>
+        <v>0.03676596308881559</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H16">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I16">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J16">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>224.9600846156868</v>
+        <v>286.1934134153423</v>
       </c>
       <c r="R16">
-        <v>2024.640761541181</v>
+        <v>2575.740720738081</v>
       </c>
       <c r="S16">
-        <v>0.03012394411362211</v>
+        <v>0.01591716321101852</v>
       </c>
       <c r="T16">
-        <v>0.03793309001925038</v>
+        <v>0.02013994140010698</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H17">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I17">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J17">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>75.62791238487219</v>
+        <v>122.5575266027817</v>
       </c>
       <c r="R17">
-        <v>453.7674743092331</v>
+        <v>735.3451596166901</v>
       </c>
       <c r="S17">
-        <v>0.01012717882820771</v>
+        <v>0.006816258034716333</v>
       </c>
       <c r="T17">
-        <v>0.008501657566983602</v>
+        <v>0.00574972795370828</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H18">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I18">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J18">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>174.3762663467059</v>
+        <v>194.7851984565045</v>
       </c>
       <c r="R18">
-        <v>1569.386397120353</v>
+        <v>1753.06678610854</v>
       </c>
       <c r="S18">
-        <v>0.02335036862714605</v>
+        <v>0.01083333036188109</v>
       </c>
       <c r="T18">
-        <v>0.02940357450456403</v>
+        <v>0.01370738213611141</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H19">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I19">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J19">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>165.5552957734146</v>
+        <v>215.6885656082967</v>
       </c>
       <c r="R19">
-        <v>1489.997661960731</v>
+        <v>1941.19709047467</v>
       </c>
       <c r="S19">
-        <v>0.02216917052690669</v>
+        <v>0.01199590885257491</v>
       </c>
       <c r="T19">
-        <v>0.02791616987727005</v>
+        <v>0.0151783893982214</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H20">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I20">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J20">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>415.34897649289</v>
+        <v>653.3095696707326</v>
       </c>
       <c r="R20">
-        <v>1661.39590597156</v>
+        <v>2613.23827868293</v>
       </c>
       <c r="S20">
-        <v>0.05561853062465236</v>
+        <v>0.03633499081503272</v>
       </c>
       <c r="T20">
-        <v>0.03112743833669545</v>
+        <v>0.02043313807692156</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H21">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I21">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J21">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>612.3571177969033</v>
+        <v>1064.153985806678</v>
       </c>
       <c r="R21">
-        <v>3674.14270678142</v>
+        <v>6384.923914840066</v>
       </c>
       <c r="S21">
-        <v>0.0819994872672906</v>
+        <v>0.05918484451338089</v>
       </c>
       <c r="T21">
-        <v>0.06883768651077662</v>
+        <v>0.04992427710354808</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H22">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I22">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J22">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>289.5694041418683</v>
+        <v>582.9304365851493</v>
       </c>
       <c r="R22">
-        <v>1737.41642485121</v>
+        <v>3497.582619510896</v>
       </c>
       <c r="S22">
-        <v>0.03877564574305033</v>
+        <v>0.03242072830771407</v>
       </c>
       <c r="T22">
-        <v>0.03255173702747987</v>
+        <v>0.02734790362703788</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H23">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I23">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J23">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>97.34851212913252</v>
+        <v>249.6301771476258</v>
       </c>
       <c r="R23">
-        <v>389.3940485165301</v>
+        <v>998.5207085905031</v>
       </c>
       <c r="S23">
-        <v>0.0130357398466135</v>
+        <v>0.01388363283639852</v>
       </c>
       <c r="T23">
-        <v>0.007295575479817012</v>
+        <v>0.007807520530266514</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H24">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I24">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J24">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>224.4577371526217</v>
+        <v>396.7464499673497</v>
       </c>
       <c r="R24">
-        <v>1346.74642291573</v>
+        <v>2380.478699804098</v>
       </c>
       <c r="S24">
-        <v>0.03005667579387176</v>
+        <v>0.02206576986577134</v>
       </c>
       <c r="T24">
-        <v>0.02523225564948043</v>
+        <v>0.0186131706239902</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H25">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I25">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J25">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>213.1033531194517</v>
+        <v>439.3232821679215</v>
       </c>
       <c r="R25">
-        <v>1278.62011871671</v>
+        <v>2635.939693007529</v>
       </c>
       <c r="S25">
-        <v>0.02853623348676584</v>
+        <v>0.02443375723157813</v>
       </c>
       <c r="T25">
-        <v>0.02395586070626438</v>
+        <v>0.02061064241597085</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H26">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I26">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J26">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>298.0381377996146</v>
+        <v>1520.368435816185</v>
       </c>
       <c r="R26">
-        <v>1788.228826797688</v>
+        <v>9122.210614897111</v>
       </c>
       <c r="S26">
-        <v>0.03990967651946527</v>
+        <v>0.08455803452976964</v>
       </c>
       <c r="T26">
-        <v>0.03350374365193549</v>
+        <v>0.07132736060903534</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H27">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I27">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J27">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>439.4034544097461</v>
+        <v>2476.477011784598</v>
       </c>
       <c r="R27">
-        <v>3954.631089687715</v>
+        <v>22288.29310606138</v>
       </c>
       <c r="S27">
-        <v>0.05883961648834074</v>
+        <v>0.1377337385738652</v>
       </c>
       <c r="T27">
-        <v>0.07409283659974319</v>
+        <v>0.1742741082013318</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H28">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I28">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J28">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>207.7836490724175</v>
+        <v>1356.583581819088</v>
       </c>
       <c r="R28">
-        <v>1870.052841651758</v>
+        <v>12209.25223637179</v>
       </c>
       <c r="S28">
-        <v>0.02782388281492275</v>
+        <v>0.07544884427464242</v>
       </c>
       <c r="T28">
-        <v>0.03503677498280391</v>
+        <v>0.0954652083573039</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H29">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I29">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J29">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>69.85347482378234</v>
+        <v>580.9341537025635</v>
       </c>
       <c r="R29">
-        <v>419.120848942694</v>
+        <v>3485.604922215382</v>
       </c>
       <c r="S29">
-        <v>0.009353935722991789</v>
+        <v>0.0323097014322934</v>
       </c>
       <c r="T29">
-        <v>0.007852528307187535</v>
+        <v>0.02725424896696372</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H30">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I30">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J30">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>161.0620701669838</v>
+        <v>923.3000824654941</v>
       </c>
       <c r="R30">
-        <v>1449.558631502854</v>
+        <v>8309.700742189447</v>
       </c>
       <c r="S30">
-        <v>0.02156749189005318</v>
+        <v>0.05135100046492644</v>
       </c>
       <c r="T30">
-        <v>0.0271585157730021</v>
+        <v>0.06497427503190797</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H31">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I31">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J31">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>152.9146094420731</v>
+        <v>1022.384000381187</v>
       </c>
       <c r="R31">
-        <v>1376.231484978658</v>
+        <v>9201.456003430685</v>
       </c>
       <c r="S31">
-        <v>0.02047648211396588</v>
+        <v>0.05686173138717309</v>
       </c>
       <c r="T31">
-        <v>0.02578467933604339</v>
+        <v>0.07194698721525583</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H32">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I32">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J32">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N32">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O32">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P32">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q32">
-        <v>403.2331372135441</v>
+        <v>228.3975930568733</v>
       </c>
       <c r="R32">
-        <v>2419.398823281264</v>
+        <v>1370.38555834124</v>
       </c>
       <c r="S32">
-        <v>0.0539961234053265</v>
+        <v>0.01270274435147135</v>
       </c>
       <c r="T32">
-        <v>0.04532916411607568</v>
+        <v>0.01071516423152902</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H33">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I33">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J33">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P33">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q33">
-        <v>594.494499033672</v>
+        <v>372.0291578196542</v>
       </c>
       <c r="R33">
-        <v>5350.450491303049</v>
+        <v>3348.262420376888</v>
       </c>
       <c r="S33">
-        <v>0.07960754057921136</v>
+        <v>0.02069107305303118</v>
       </c>
       <c r="T33">
-        <v>0.1002445095374085</v>
+        <v>0.02618035596348676</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H34">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I34">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J34">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N34">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O34">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P34">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q34">
-        <v>281.122588188636</v>
+        <v>203.7929869950364</v>
       </c>
       <c r="R34">
-        <v>2530.103293697724</v>
+        <v>1834.136882955328</v>
       </c>
       <c r="S34">
-        <v>0.03764454992154974</v>
+        <v>0.01133431477877288</v>
       </c>
       <c r="T34">
-        <v>0.04740329139910263</v>
+        <v>0.01434127629581838</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H35">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I35">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J35">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N35">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O35">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P35">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q35">
-        <v>94.50883033432203</v>
+        <v>87.27092677306734</v>
       </c>
       <c r="R35">
-        <v>567.0529820059321</v>
+        <v>523.6255606384041</v>
       </c>
       <c r="S35">
-        <v>0.01265548387438856</v>
+        <v>0.004853730099678426</v>
       </c>
       <c r="T35">
-        <v>0.01062414242600829</v>
+        <v>0.004094273939122924</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H36">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I36">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J36">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N36">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O36">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P36">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q36">
-        <v>217.9102457122681</v>
+        <v>138.7029035439849</v>
       </c>
       <c r="R36">
-        <v>1961.192211410412</v>
+        <v>1248.326131895864</v>
       </c>
       <c r="S36">
-        <v>0.02917991462723821</v>
+        <v>0.0077142123125934</v>
       </c>
       <c r="T36">
-        <v>0.03674433613786093</v>
+        <v>0.009760770927828748</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H37">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I37">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J37">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N37">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O37">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P37">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q37">
-        <v>206.887072058436</v>
+        <v>153.5878010658413</v>
       </c>
       <c r="R37">
-        <v>1861.983648525924</v>
+        <v>1382.290209592572</v>
       </c>
       <c r="S37">
-        <v>0.02770382402356481</v>
+        <v>0.008542062752641202</v>
       </c>
       <c r="T37">
-        <v>0.03488559288915093</v>
+        <v>0.01080824773821126</v>
       </c>
     </row>
   </sheetData>
